--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_101.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_101.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,268 +488,278 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84), (28.8, 36.86)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(3.82, 6.46), (1.36, 4.74)]</t>
+          <t>[('0:00:02.060000', '0:00:23.220000'), ('0:00:57.580000', '0:01:19.360000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.260000', '0:00:24.940000'), ('0:01:05.060000', '0:01:28.500000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(13.08, 19.46)]</t>
+          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(97.72, 114.06)]</t>
+          <t>[('0:00:08.460000', '0:00:13.460000'), ('0:00:00.240000', '0:00:05.080000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:01:24.620000', '0:01:31.740000'), ('0:00:15.600000', '0:00:24.080000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(8.34, 26.4)]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(6.74, 21.54)]</t>
+          <t>[('0:00:39.840000', '0:00:47.280000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:09.260000', '0:00:13.900000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(10.94, 65.78)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(11.94, 67.8)]</t>
+          <t>[('0:01:03.240000', '0:01:04.620000'), ('0:01:01.600000', '0:01:03.840000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:00.260000', '0:00:07.340000'), ('0:00:52.740000', '0:01:00.860000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_92</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2113636363636364</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(24.76, 34.92)]</t>
+          <t>[['E:7', 'A', 'A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(53.28, 65.12)]</t>
+          <t>[('0:00:06.740000', '0:00:12.160000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:24.631133', '0:00:29.751133')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(6.88, 12.96)]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(2.68, 6.46)]</t>
+          <t>[('0:04:01.220000', '0:04:15.460000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
+          <t>[('0:00:17.360000', '0:00:20.700000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -753,450 +768,418 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(35.82, 37.76)]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[('0:01:46.960000', '0:01:59.340000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:01:30.140000', '0:01:38.780000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_224</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_82</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1575797872340425</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>[['A', 'D', 'E', 'A', 'D', 'E']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(2.36, 24.96)]</t>
+          <t>[['A', 'D', 'E', 'A', 'D', 'E']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(0.56, 25.4)]</t>
+          <t>[('0:00:00.366281', '0:00:14.704603')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:51.315598', '0:01:03.292358')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_174</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4740740740740741</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82), (32.44, 34.8)]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(12.42, 27.08), (73.62, 81.04)]</t>
+          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:01.150000', '0:00:06.536000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_135</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4869565217391305</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(27.46, 36.02), (81.1, 87.58)]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(99.6, 111.62), (46.52, 48.94)]</t>
+          <t>[('0:02:12.300000', '0:02:17.480000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:14.450219', '0:00:23.088042')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_196</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5283018867924528</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(32.98, 35.26)]</t>
+          <t>[['D', 'G/5', 'D']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(34.86, 39.7)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:19.708503', '0:00:25.501882')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_72</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1277173913043478</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(40.96, 43.3)]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'E:7', 'A:maj', 'C#:7/G#', 'G:(3,5)', 'B:maj', 'G#:(3,5,b7,b9)', 'C#:min/F#', 'E:maj/F#', 'F#:7', 'B:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(32.074829, 37.705668)]</t>
+          <t>[('0:00:00.600000', '0:00:40.540000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
-        </is>
-      </c>
+          <t>[('0:00:00.320000', '0:00:40.640000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(34.56, 36.42)]</t>
+          <t>[('0:00:01.900000', '0:01:41.900000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:00.620000', '0:01:47.380000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1057579318448884</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526), (13.648526, 21.12535)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(3.1, 5.58), (0.5, 3.9)]</t>
+          <t>[('0:00:05.360000', '0:01:50.760000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>[('0:00:06.040000', '0:01:50.760000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1057579318448884</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526), (13.648526, 21.12535)]</t>
+          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min', 'G:min', 'A:hdim7/C', 'D:7', 'G:min', 'F#:dim7', 'G:min', 'F#:dim7', 'D:maj/A', 'G:min/A#', 'F:maj/A', 'D#:maj/G', 'A#:maj/F', 'D#:maj', 'A#:maj/F', 'F:7', 'A#:maj', 'D#:maj/G', 'D:min/A', 'A:7', 'D:min', 'C#:dim7/E', 'D:min/F', 'D:(3,5,b7,b9)/F#', 'G:min', 'G:(3,5,b7,b9)', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'F#:dim7', 'A:hdim7/C', 'F#:dim7', 'A:hdim7/C', 'D:(3,5,b7,b9)', 'G:min', 'G:(3,5,b7,b9)/B', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(2.86, 5.3), (0.38, 3.7)]</t>
+          <t>[('0:00:10.940000', '0:01:05.780000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>[('0:00:09.180000', '0:01:01')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(2.56, 4.8)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(37.96, 44.8)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
